--- a/Challenge6/rubychallenge_6_farmer_rock.xlsx
+++ b/Challenge6/rubychallenge_6_farmer_rock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="25875" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="1-3-9-27" sheetId="6" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>40</v>
       </c>
       <c r="S3">
-        <f>R3-L3</f>
+        <f t="shared" ref="S3:S42" si="3">R3-L3</f>
         <v>0</v>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <v>39</v>
       </c>
       <c r="S4">
-        <f>R4-L4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -585,7 +585,7 @@
         <v>38</v>
       </c>
       <c r="S5">
-        <f>R5-L5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -615,7 +615,7 @@
         <v>37</v>
       </c>
       <c r="S6">
-        <f>R6-L6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
         <v>36</v>
       </c>
       <c r="S7">
-        <f>R7-L7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>35</v>
       </c>
       <c r="S8">
-        <f>R8-L8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -705,7 +705,7 @@
         <v>34</v>
       </c>
       <c r="S9">
-        <f>R9-L9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -735,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="S10">
-        <f>R10-L10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
         <v>32</v>
       </c>
       <c r="S11">
-        <f>R11-L11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>31</v>
       </c>
       <c r="S12">
-        <f>R12-L12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>30</v>
       </c>
       <c r="S13">
-        <f>R13-L13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="S14">
-        <f>R14-L14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="S15">
-        <f>R15-L15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="S16">
-        <f>R16-L16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="S17">
-        <f>R17-L17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="S18">
-        <f>R18-L18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="S19">
-        <f>R19-L19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="S20">
-        <f>R20-L20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="S21">
-        <f>R21-L21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
         <v>21</v>
       </c>
       <c r="S22">
-        <f>R22-L22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="S23">
-        <f>R23-L23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="S24">
-        <f>R24-L24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="S25">
-        <f>R25-L25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="S26">
-        <f>R26-L26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="S27">
-        <f>R27-L27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="S28">
-        <f>R28-L28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="S29">
-        <f>R29-L29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="S30">
-        <f>R30-L30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="S31">
-        <f>R31-L31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="S32">
-        <f>R32-L32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="S33">
-        <f>R33-L33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="S34">
-        <f>R34-L34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
       <c r="S35">
-        <f>R35-L35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="S36">
-        <f>R36-L36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="S37">
-        <f>R37-L37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="S38">
-        <f>R38-L38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1563,14 +1563,14 @@
         <v>3</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" ref="K39:K42" si="3">SUM(G39:J39)</f>
+        <f t="shared" ref="K39:K42" si="4">SUM(G39:J39)</f>
         <v>4</v>
       </c>
       <c r="L39" s="1">
         <v>4</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" ref="M39:M42" si="4">SUM(N39:Q39)</f>
+        <f t="shared" ref="M39:M42" si="5">SUM(N39:Q39)</f>
         <v>0</v>
       </c>
       <c r="R39">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="S39">
-        <f>R39-L39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1587,14 +1587,14 @@
         <v>3</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R40">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="S40">
-        <f>R40-L40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1611,14 +1611,14 @@
         <v>3</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L41" s="1">
         <v>2</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N41">
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="S41">
-        <f>R41-L41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1638,14 +1638,14 @@
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R42">
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="S42">
-        <f>R42-L42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1689,15 +1689,15 @@
         <v>1</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" ref="H44:J44" si="5">B2</f>
+        <f t="shared" ref="H44:J44" si="6">B2</f>
         <v>3</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="N44" s="2">
@@ -1705,15 +1705,15 @@
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" ref="O44:Q44" si="6">H44</f>
+        <f t="shared" ref="O44:Q44" si="7">H44</f>
         <v>3</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
     </row>

--- a/Challenge6/rubychallenge_6_farmer_rock.xlsx
+++ b/Challenge6/rubychallenge_6_farmer_rock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
@@ -48,12 +48,18 @@
   <si>
     <t>Difference</t>
   </si>
+  <si>
+    <t>non-grain side</t>
+  </si>
+  <si>
+    <t>grain side</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +81,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +112,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -109,12 +134,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -125,8 +151,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +513,12 @@
         <f>40</f>
         <v>40</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" t="s">
         <v>5</v>
       </c>
@@ -489,6 +528,12 @@
       <c r="M2" t="s">
         <v>6</v>
       </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
       <c r="S2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +555,7 @@
         <f t="shared" ref="K3:K37" si="0">SUM(G3:J3)</f>
         <v>40</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="9">
         <v>40</v>
       </c>
       <c r="M3" s="3">
@@ -540,7 +585,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <v>39</v>
       </c>
       <c r="M4" s="3">
@@ -570,7 +615,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <v>38</v>
       </c>
       <c r="M5" s="3">
@@ -894,7 +939,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="9">
         <v>27</v>
       </c>
       <c r="M16" s="3">
@@ -910,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>27</v>
       </c>
@@ -937,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1</v>
       </c>
@@ -967,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>27</v>
       </c>
@@ -994,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>27</v>
       </c>
@@ -1024,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>1</v>
       </c>
@@ -1057,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H22">
         <v>3</v>
       </c>
@@ -1087,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>3</v>
       </c>
@@ -1120,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>1</v>
       </c>
@@ -1150,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>27</v>
       </c>
@@ -1177,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J26">
         <v>27</v>
       </c>
@@ -1207,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>1</v>
       </c>
@@ -1240,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>27</v>
       </c>
@@ -1270,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>27</v>
       </c>
@@ -1303,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>1</v>
       </c>
@@ -1333,331 +1378,499 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>9</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="7">
         <v>12</v>
       </c>
-      <c r="M31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31">
+      <c r="M31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="S31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>3</v>
+      </c>
+      <c r="I32" s="6">
+        <v>9</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="7">
         <v>11</v>
       </c>
-      <c r="M32" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="R32">
+      <c r="M32" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>9</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="S32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>9</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="7">
         <v>10</v>
       </c>
-      <c r="M33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33">
+      <c r="M33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L34" s="1">
-        <v>9</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="I35">
-        <v>9</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="S33" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L34" s="9">
+        <v>9</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="S34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L35" s="7">
         <v>8</v>
       </c>
-      <c r="M35" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="R35">
+      <c r="M35" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="S35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>9</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="S35" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
+        <v>9</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="7">
         <v>7</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O36">
-        <v>3</v>
-      </c>
-      <c r="R36">
+      <c r="M36" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6">
+        <v>3</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="I37">
-        <v>9</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="S36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <v>9</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L37" s="7">
         <v>6</v>
       </c>
-      <c r="M37" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>3</v>
-      </c>
-      <c r="R37">
+      <c r="M37" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6">
+        <v>3</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="I38">
-        <v>9</v>
-      </c>
-      <c r="K38" s="3">
+      <c r="S37" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6">
         <f>SUM(G38:J38)</f>
         <v>9</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="7">
         <v>5</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="6">
         <f>SUM(N38:Q38)</f>
         <v>4</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-      <c r="R38">
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38" s="6">
+        <v>3</v>
+      </c>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="S38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="K39" s="3">
+      <c r="S38" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6">
+        <v>3</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
         <f t="shared" ref="K39:K42" si="4">SUM(G39:J39)</f>
         <v>4</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="7">
         <v>4</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="6">
         <f t="shared" ref="M39:M42" si="5">SUM(N39:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3">
+      <c r="S39" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>3</v>
+      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L40" s="1">
-        <v>3</v>
-      </c>
-      <c r="M40" s="3">
+      <c r="L40" s="9">
+        <v>3</v>
+      </c>
+      <c r="M40" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>3</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="7">
         <v>2</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="R41">
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="S41" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R42">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6">
         <f>K42-M42</f>
         <v>1</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="S42" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G43" s="4" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G44" s="2">
         <f>A2</f>
         <v>1</v>
@@ -1718,6 +1931,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="N2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>